--- a/src/predicciones/holt_winters/producto_59.xlsx
+++ b/src/predicciones/holt_winters/producto_59.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -384,6 +393,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,165 +404,165 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>45050</v>
       </c>
       <c r="B2">
-        <v>1.383863378231708</v>
+        <v>1.341650234629495</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>45079</v>
       </c>
       <c r="B3">
-        <v>2.608253720792619</v>
+        <v>2.537224185362742</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>45089</v>
       </c>
       <c r="B4">
-        <v>2.363934622924158</v>
+        <v>2.296628909724014</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>45090</v>
       </c>
       <c r="B5">
-        <v>0.8839604043069117</v>
+        <v>0.8390544416072075</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>45093</v>
       </c>
       <c r="B6">
-        <v>2.269046204566032</v>
+        <v>2.203063236127341</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>45129</v>
       </c>
       <c r="B7">
-        <v>0.4806939577425451</v>
+        <v>0.4415144577114383</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>45134</v>
       </c>
       <c r="B8">
-        <v>0.9881680118558495</v>
+        <v>0.9385089411674845</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>45135</v>
       </c>
       <c r="B9">
-        <v>1.168436885429253</v>
+        <v>1.10312407773607</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>45149</v>
       </c>
       <c r="B10">
-        <v>2.392827227990164</v>
+        <v>2.298698028469317</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>45166</v>
       </c>
       <c r="B11">
-        <v>2.148508130121703</v>
+        <v>2.058102752830589</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>45194</v>
       </c>
       <c r="B12">
-        <v>0.668533911504457</v>
+        <v>0.6005282847137828</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>45198</v>
       </c>
       <c r="B13">
-        <v>2.053619711763576</v>
+        <v>1.964537079233917</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>45240</v>
       </c>
       <c r="B14">
-        <v>0.2652674649400903</v>
+        <v>0.2029883008180136</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>45304</v>
       </c>
       <c r="B15">
-        <v>0.7727415190533945</v>
+        <v>0.6999827842740598</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>45326</v>
       </c>
       <c r="B16">
-        <v>0.9530103926267987</v>
+        <v>0.8645979208426453</v>
       </c>
       <c r="C16">
         <v>3</v>
